--- a/biology/Microbiologie/Sorangium_cellulosum/Sorangium_cellulosum.xlsx
+++ b/biology/Microbiologie/Sorangium_cellulosum/Sorangium_cellulosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorangium cellulosum est une espèce de bactéries à coloration de Gram négatif, cellulolytiques, vivants dans le sol. C’est une bactérie mobile par glissement. Elle présente également des fructifications. Le génome est séquencé, il est composé de 12 000 000 paires de bases[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorangium cellulosum est une espèce de bactéries à coloration de Gram négatif, cellulolytiques, vivants dans le sol. C’est une bactérie mobile par glissement. Elle présente également des fructifications. Le génome est séquencé, il est composé de 12 000 000 paires de bases.
 </t>
         </is>
       </c>
